--- a/Libraries/Vehicle/Power/Electric2Motor/sm_car_data_Power_Electric2Motor.xlsx
+++ b/Libraries/Vehicle/Power/Electric2Motor/sm_car_data_Power_Electric2Motor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Power\Electric2Motor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Power\Electric2Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670E4F2-2508-4C73-BE18-6917A0E9FD60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA2EB75-EB01-4626-9AD0-1FE0E3E49336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3EB3AC41-B7D3-4E4D-A710-77CB91E8EAF9}"/>
+    <workbookView xWindow="1980" yWindow="1440" windowWidth="17280" windowHeight="10215" xr2:uid="{3EB3AC41-B7D3-4E4D-A710-77CB91E8EAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Units</t>
   </si>
@@ -84,9 +86,6 @@
     <t>LossTable</t>
   </si>
   <si>
-    <t>loss</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -199,6 +198,15 @@
   </si>
   <si>
     <t>TAmbient</t>
+  </si>
+  <si>
+    <t>mThermal</t>
+  </si>
+  <si>
+    <t>J/K</t>
+  </si>
+  <si>
+    <t>Tinit</t>
   </si>
 </sst>
 </file>
@@ -635,14 +643,14 @@
   <sheetPr>
     <tabColor rgb="FFCCFF66"/>
   </sheetPr>
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +709,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -715,12 +723,12 @@
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>8</v>
@@ -731,20 +739,20 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
       </c>
       <c r="H6">
         <v>293</v>
@@ -752,7 +760,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -972,10 +980,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>85</v>
@@ -1508,13 +1513,13 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" t="s">
         <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
       </c>
       <c r="H26">
         <v>25</v>
@@ -1524,10 +1529,10 @@
       <c r="A27" s="8"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -1537,10 +1542,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H28" s="12">
         <v>90</v>
@@ -2072,323 +2074,270 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="13">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="H42" s="12">
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J43">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K43">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L43">
-        <v>5000</v>
-      </c>
-      <c r="M43">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N43">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O43">
-        <v>10000</v>
-      </c>
-      <c r="P43">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q43">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R43">
-        <v>15000</v>
-      </c>
-      <c r="S43">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T43">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U43">
-        <v>20000</v>
+        <v>37</v>
+      </c>
+      <c r="H43" s="12">
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44">
-        <v>300</v>
-      </c>
-      <c r="I44">
-        <v>300</v>
-      </c>
-      <c r="J44">
-        <v>300</v>
-      </c>
-      <c r="K44">
-        <v>300</v>
-      </c>
-      <c r="L44">
-        <v>286.47890000000001</v>
-      </c>
-      <c r="M44">
-        <v>214.85919999999999</v>
-      </c>
-      <c r="N44">
-        <v>171.88730000000001</v>
-      </c>
-      <c r="O44">
-        <v>143.23939999999999</v>
-      </c>
-      <c r="P44">
-        <v>122.77670000000001</v>
-      </c>
-      <c r="Q44">
-        <v>107.42959999999999</v>
-      </c>
-      <c r="R44">
-        <v>95.492999999999995</v>
-      </c>
-      <c r="S44">
-        <v>85.943700000000007</v>
-      </c>
-      <c r="T44">
-        <v>78.130600000000001</v>
-      </c>
-      <c r="U44">
-        <v>71.619699999999995</v>
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="5"/>
+      <c r="A45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H45">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1666.6666666666699</v>
+      </c>
+      <c r="J45">
+        <v>3333.3333333333298</v>
+      </c>
+      <c r="K45">
+        <v>4774.6371266666702</v>
+      </c>
+      <c r="L45">
+        <v>5000</v>
+      </c>
+      <c r="M45">
+        <v>6666.6666666666697</v>
+      </c>
+      <c r="N45">
+        <v>8333.3333333333303</v>
+      </c>
+      <c r="O45">
+        <v>10000</v>
+      </c>
+      <c r="P45">
+        <v>11666.666666666602</v>
+      </c>
+      <c r="Q45">
+        <v>13333.333333333299</v>
+      </c>
+      <c r="R45">
+        <v>15000</v>
+      </c>
+      <c r="S45">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T45">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U45">
+        <v>20000</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I46">
-        <v>1666.6666666666699</v>
+        <v>300</v>
       </c>
       <c r="J46">
-        <v>3333.3333333333298</v>
+        <v>300</v>
       </c>
       <c r="K46">
-        <v>4774.6371266666702</v>
+        <v>300</v>
       </c>
       <c r="L46">
-        <v>5000</v>
+        <v>286.47890000000001</v>
       </c>
       <c r="M46">
-        <v>6666.6666666666697</v>
+        <v>214.85919999999999</v>
       </c>
       <c r="N46">
-        <v>8333.3333333333303</v>
+        <v>171.88730000000001</v>
       </c>
       <c r="O46">
-        <v>10000</v>
+        <v>143.23939999999999</v>
       </c>
       <c r="P46">
-        <v>11666.666666666602</v>
+        <v>122.77670000000001</v>
       </c>
       <c r="Q46">
-        <v>13333.333333333299</v>
+        <v>107.42959999999999</v>
       </c>
       <c r="R46">
-        <v>15000</v>
+        <v>95.492999999999995</v>
       </c>
       <c r="S46">
-        <v>16666.666666666602</v>
+        <v>85.943700000000007</v>
       </c>
       <c r="T46">
-        <v>18333.333333333299</v>
+        <v>78.130600000000001</v>
       </c>
       <c r="U46">
-        <v>20000</v>
+        <v>71.619699999999995</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>20</v>
-      </c>
-      <c r="J47">
-        <v>40</v>
-      </c>
-      <c r="K47">
-        <v>60</v>
-      </c>
-      <c r="L47">
-        <v>80</v>
-      </c>
-      <c r="M47">
-        <v>100</v>
-      </c>
-      <c r="N47">
-        <v>120</v>
-      </c>
-      <c r="O47">
-        <v>140</v>
-      </c>
-      <c r="P47">
-        <v>160</v>
-      </c>
-      <c r="Q47">
-        <v>180</v>
-      </c>
-      <c r="R47">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C48" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>85</v>
+        <v>1666.6666666666699</v>
       </c>
       <c r="J48">
-        <v>85</v>
+        <v>3333.3333333333298</v>
       </c>
       <c r="K48">
-        <v>85</v>
+        <v>4774.6371266666702</v>
       </c>
       <c r="L48">
-        <v>85</v>
+        <v>5000</v>
       </c>
       <c r="M48">
-        <v>85</v>
+        <v>6666.6666666666697</v>
       </c>
       <c r="N48">
-        <v>85</v>
+        <v>8333.3333333333303</v>
       </c>
       <c r="O48">
-        <v>85</v>
+        <v>10000</v>
       </c>
       <c r="P48">
-        <v>85</v>
+        <v>11666.666666666602</v>
       </c>
       <c r="Q48">
-        <v>85</v>
+        <v>13333.333333333299</v>
       </c>
       <c r="R48">
-        <v>85</v>
+        <v>15000</v>
+      </c>
+      <c r="S48">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T48">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U48">
+        <v>20000</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
       <c r="H49">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J49">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L49">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M49">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N49">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="O49">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="P49">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="Q49">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="R49">
-        <v>88</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H50">
         <v>85</v>
       </c>
@@ -2396,31 +2345,31 @@
         <v>85</v>
       </c>
       <c r="J50">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L50">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M50">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N50">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O50">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P50">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q50">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="R50">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -2434,31 +2383,31 @@
         <v>85</v>
       </c>
       <c r="J51">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K51">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L51">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M51">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N51">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O51">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P51">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q51">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R51">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -2472,31 +2421,31 @@
         <v>85</v>
       </c>
       <c r="J52">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q52">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R52">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -2510,31 +2459,31 @@
         <v>85</v>
       </c>
       <c r="J53">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K53">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L53">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M53">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N53">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O53">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P53">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q53">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R53">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -2557,22 +2506,22 @@
         <v>94</v>
       </c>
       <c r="M54">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N54">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O54">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P54">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q54">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R54">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -2592,7 +2541,7 @@
         <v>94</v>
       </c>
       <c r="L55">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M55">
         <v>95</v>
@@ -2630,7 +2579,7 @@
         <v>94</v>
       </c>
       <c r="L56">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M56">
         <v>95</v>
@@ -2668,25 +2617,25 @@
         <v>94</v>
       </c>
       <c r="L57">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M57">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N57">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O57">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P57">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q57">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R57">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -2700,31 +2649,31 @@
         <v>85</v>
       </c>
       <c r="J58">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L58">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M58">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N58">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O58">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P58">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q58">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R58">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -2738,31 +2687,31 @@
         <v>85</v>
       </c>
       <c r="J59">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K59">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R59">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -2843,133 +2792,130 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
-      <c r="B62" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="13">
-        <v>0</v>
+      <c r="H62">
+        <v>85</v>
+      </c>
+      <c r="I62">
+        <v>85</v>
+      </c>
+      <c r="J62">
+        <v>90</v>
+      </c>
+      <c r="K62">
+        <v>92</v>
+      </c>
+      <c r="L62">
+        <v>93</v>
+      </c>
+      <c r="M62">
+        <v>93</v>
+      </c>
+      <c r="N62">
+        <v>93</v>
+      </c>
+      <c r="O62">
+        <v>93</v>
+      </c>
+      <c r="P62">
+        <v>93</v>
+      </c>
+      <c r="Q62">
+        <v>93</v>
+      </c>
+      <c r="R62">
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
-      <c r="B63" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="H63">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="I63">
+        <v>85</v>
+      </c>
+      <c r="J63">
+        <v>90</v>
+      </c>
+      <c r="K63">
+        <v>92</v>
+      </c>
+      <c r="L63">
+        <v>93</v>
+      </c>
+      <c r="M63">
+        <v>93</v>
+      </c>
+      <c r="N63">
+        <v>93</v>
+      </c>
+      <c r="O63">
+        <v>93</v>
+      </c>
+      <c r="P63">
+        <v>93</v>
+      </c>
+      <c r="Q63">
+        <v>93</v>
+      </c>
+      <c r="R63">
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C64" s="5"/>
       <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C65" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="12">
-        <v>90</v>
-      </c>
-      <c r="I65" s="12">
-        <v>90</v>
-      </c>
-      <c r="J65" s="12">
-        <v>90</v>
-      </c>
-      <c r="K65" s="12">
-        <v>90</v>
-      </c>
-      <c r="L65" s="12">
-        <v>90</v>
-      </c>
-      <c r="M65" s="12">
-        <v>90</v>
-      </c>
-      <c r="N65" s="12">
-        <v>90</v>
-      </c>
-      <c r="O65" s="12">
-        <v>90</v>
-      </c>
-      <c r="P65" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q65" s="12">
-        <v>90</v>
-      </c>
-      <c r="R65" s="12">
-        <v>90</v>
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="H66" s="12">
-        <v>90</v>
-      </c>
-      <c r="I66" s="12">
-        <v>90</v>
-      </c>
-      <c r="J66" s="12">
-        <v>90</v>
-      </c>
-      <c r="K66" s="12">
-        <v>90</v>
-      </c>
-      <c r="L66" s="12">
-        <v>90</v>
-      </c>
-      <c r="M66" s="12">
-        <v>90</v>
-      </c>
-      <c r="N66" s="12">
-        <v>90</v>
-      </c>
-      <c r="O66" s="12">
-        <v>90</v>
-      </c>
-      <c r="P66" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q66" s="12">
-        <v>90</v>
-      </c>
-      <c r="R66" s="12">
-        <v>90</v>
+      <c r="C66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H67" s="12">
         <v>90</v>
       </c>
@@ -3423,263 +3369,261 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A79" s="8"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79">
-        <v>650</v>
+      <c r="H79" s="12">
+        <v>90</v>
+      </c>
+      <c r="I79" s="12">
+        <v>90</v>
+      </c>
+      <c r="J79" s="12">
+        <v>90</v>
+      </c>
+      <c r="K79" s="12">
+        <v>90</v>
+      </c>
+      <c r="L79" s="12">
+        <v>90</v>
+      </c>
+      <c r="M79" s="12">
+        <v>90</v>
+      </c>
+      <c r="N79" s="12">
+        <v>90</v>
+      </c>
+      <c r="O79" s="12">
+        <v>90</v>
+      </c>
+      <c r="P79" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>90</v>
+      </c>
+      <c r="R79" s="12">
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
-      <c r="B80" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80">
-        <v>60000</v>
+      <c r="H80" s="12">
+        <v>90</v>
+      </c>
+      <c r="I80" s="12">
+        <v>90</v>
+      </c>
+      <c r="J80" s="12">
+        <v>90</v>
+      </c>
+      <c r="K80" s="12">
+        <v>90</v>
+      </c>
+      <c r="L80" s="12">
+        <v>90</v>
+      </c>
+      <c r="M80" s="12">
+        <v>90</v>
+      </c>
+      <c r="N80" s="12">
+        <v>90</v>
+      </c>
+      <c r="O80" s="12">
+        <v>90</v>
+      </c>
+      <c r="P80" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q80" s="12">
+        <v>90</v>
+      </c>
+      <c r="R80" s="12">
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
-      <c r="B81" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81">
-        <f>H80/H79*100</f>
-        <v>9230.7692307692305</v>
+        <v>56</v>
+      </c>
+      <c r="H81" s="12">
+        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
-      <c r="B82" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="H82">
-        <v>98</v>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" s="12">
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="B83" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H83">
-        <v>1000</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" t="s">
+        <v>17</v>
       </c>
       <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0.2</v>
-      </c>
-      <c r="J84">
-        <v>0.4</v>
-      </c>
-      <c r="K84">
-        <v>0.6</v>
-      </c>
-      <c r="L84">
-        <v>0.8</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="B85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="5"/>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>243.1</v>
-      </c>
-      <c r="I85">
-        <v>253.1</v>
-      </c>
-      <c r="J85">
-        <v>263.10000000000002</v>
-      </c>
-      <c r="K85">
-        <v>273.10000000000002</v>
-      </c>
-      <c r="L85">
-        <v>283.10000000000002</v>
-      </c>
-      <c r="M85">
-        <v>298.10000000000002</v>
-      </c>
-      <c r="N85">
-        <v>313.10000000000002</v>
+        <f>H84/H83*100</f>
+        <v>9230.7692307692305</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" t="s">
-        <v>29</v>
-      </c>
+      <c r="B86" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="5"/>
       <c r="H86">
-        <v>201.6</v>
-      </c>
-      <c r="I86">
-        <v>201.6</v>
-      </c>
-      <c r="J86">
-        <v>201.6</v>
-      </c>
-      <c r="K86">
-        <v>201.6</v>
-      </c>
-      <c r="L86">
-        <v>201.6</v>
-      </c>
-      <c r="M86">
-        <v>201.6</v>
-      </c>
-      <c r="N86">
-        <v>201.6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
-      <c r="B87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C87" s="5"/>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
       <c r="H87">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="I87">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="J87">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="K87">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="L87">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="M87">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="N87">
-        <v>258.76799999999997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="A88" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H88">
-        <v>264.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>264.95999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="J88">
-        <v>264.95999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="K88">
-        <v>264.95999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="L88">
-        <v>264.95999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="M88">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="N88">
-        <v>264.95999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
       <c r="H89">
-        <v>272.952</v>
+        <v>243.1</v>
       </c>
       <c r="I89">
-        <v>272.952</v>
+        <v>253.1</v>
       </c>
       <c r="J89">
-        <v>272.952</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="K89">
-        <v>272.952</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="L89">
-        <v>272.952</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="M89">
-        <v>272.952</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="N89">
-        <v>272.952</v>
+        <v>313.10000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
       <c r="H90">
-        <v>286.12799999999999</v>
+        <v>201.6</v>
       </c>
       <c r="I90">
-        <v>286.12799999999999</v>
+        <v>201.6</v>
       </c>
       <c r="J90">
-        <v>286.12799999999999</v>
+        <v>201.6</v>
       </c>
       <c r="K90">
-        <v>286.12799999999999</v>
+        <v>201.6</v>
       </c>
       <c r="L90">
-        <v>286.12799999999999</v>
+        <v>201.6</v>
       </c>
       <c r="M90">
-        <v>286.12799999999999</v>
+        <v>201.6</v>
       </c>
       <c r="N90">
-        <v>286.12799999999999</v>
+        <v>201.6</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -3687,114 +3631,103 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="H91">
-        <v>303.91199999999998</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="I91">
-        <v>303.91199999999998</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="J91">
-        <v>303.91199999999998</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="K91">
-        <v>303.91199999999998</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="L91">
-        <v>303.91199999999998</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="M91">
-        <v>303.91199999999998</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="N91">
-        <v>303.91199999999998</v>
+        <v>258.76799999999997</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
-      <c r="B92" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="H92">
-        <v>0</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="I92">
-        <v>0.2</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="J92">
-        <v>0.4</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="K92">
-        <v>0.6</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="L92">
-        <v>0.8</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>264.95999999999998</v>
+      </c>
+      <c r="N92">
+        <v>264.95999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" t="s">
-        <v>38</v>
-      </c>
+      <c r="C93" s="5"/>
       <c r="H93">
-        <v>243.1</v>
+        <v>272.952</v>
       </c>
       <c r="I93">
-        <v>253.1</v>
+        <v>272.952</v>
       </c>
       <c r="J93">
-        <v>263.10000000000002</v>
+        <v>272.952</v>
       </c>
       <c r="K93">
-        <v>273.10000000000002</v>
+        <v>272.952</v>
       </c>
       <c r="L93">
-        <v>283.10000000000002</v>
+        <v>272.952</v>
       </c>
       <c r="M93">
-        <v>298.10000000000002</v>
+        <v>272.952</v>
       </c>
       <c r="N93">
-        <v>313.10000000000002</v>
+        <v>272.952</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D94" t="s">
-        <v>42</v>
-      </c>
+      <c r="C94" s="5"/>
       <c r="H94">
-        <v>0.31845600000000002</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="I94">
-        <v>0.23000399999999999</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="J94">
-        <v>0.15710399999999999</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="K94">
-        <v>7.3116E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="L94">
-        <v>5.1948000000000001E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="M94">
-        <v>2.0170799999999999E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="N94">
-        <v>3.7007999999999999E-2</v>
+        <v>286.12799999999999</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -3802,103 +3735,114 @@
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="H95">
-        <v>0.335484</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="I95">
-        <v>0.23594399999999999</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="J95">
-        <v>0.14763599999999999</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="K95">
-        <v>9.2268000000000003E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="L95">
-        <v>6.5699999999999995E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="M95">
-        <v>2.58912E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="N95">
-        <v>4.8168000000000002E-2</v>
+        <v>303.91199999999998</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+      <c r="B96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H96">
-        <v>0.32497199999999998</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0.199908</v>
+        <v>0.2</v>
       </c>
       <c r="J96">
-        <v>0.14616000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="K96">
-        <v>9.1151999999999997E-2</v>
+        <v>0.6</v>
       </c>
       <c r="L96">
-        <v>6.4619999999999997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="M96">
-        <v>2.4793200000000001E-2</v>
-      </c>
-      <c r="N96">
-        <v>3.5999999999999997E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s">
+        <v>37</v>
+      </c>
       <c r="H97">
-        <v>0.30492000000000002</v>
+        <v>243.1</v>
       </c>
       <c r="I97">
-        <v>0.19889999999999999</v>
+        <v>253.1</v>
       </c>
       <c r="J97">
-        <v>0.12427199999999999</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="K97">
-        <v>8.856E-2</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="L97">
-        <v>6.4007999999999995E-2</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="M97">
-        <v>2.7205199999999999E-2</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="N97">
-        <v>5.5295999999999998E-2</v>
+        <v>313.10000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" t="s">
+        <v>41</v>
+      </c>
       <c r="H98">
-        <v>0.37152000000000002</v>
+        <v>0.31845600000000002</v>
       </c>
       <c r="I98">
-        <v>0.21754799999999999</v>
+        <v>0.23000399999999999</v>
       </c>
       <c r="J98">
-        <v>0.138456</v>
+        <v>0.15710399999999999</v>
       </c>
       <c r="K98">
-        <v>9.7776000000000002E-2</v>
+        <v>7.3116E-2</v>
       </c>
       <c r="L98">
-        <v>6.9264000000000006E-2</v>
+        <v>5.1948000000000001E-2</v>
       </c>
       <c r="M98">
-        <v>2.6478000000000002E-2</v>
+        <v>2.0170799999999999E-2</v>
       </c>
       <c r="N98">
-        <v>5.5655999999999997E-2</v>
+        <v>3.7007999999999999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -3906,101 +3850,205 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="H99">
-        <v>0.47304000000000002</v>
+        <v>0.335484</v>
       </c>
       <c r="I99">
-        <v>0.28098000000000001</v>
+        <v>0.23594399999999999</v>
       </c>
       <c r="J99">
-        <v>0.16261200000000001</v>
+        <v>0.14763599999999999</v>
       </c>
       <c r="K99">
-        <v>0.109692</v>
+        <v>9.2268000000000003E-2</v>
       </c>
       <c r="L99">
-        <v>8.0423999999999995E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="M99">
-        <v>3.6504000000000002E-2</v>
+        <v>2.58912E-2</v>
       </c>
       <c r="N99">
-        <v>0.10040399999999999</v>
+        <v>4.8168000000000002E-2</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
-      <c r="B100" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" t="s">
-        <v>38</v>
-      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
       <c r="H100">
-        <v>243.1</v>
+        <v>0.32497199999999998</v>
       </c>
       <c r="I100">
-        <v>253.1</v>
+        <v>0.199908</v>
       </c>
       <c r="J100">
-        <v>263.10000000000002</v>
+        <v>0.14616000000000001</v>
       </c>
       <c r="K100">
-        <v>273.10000000000002</v>
+        <v>9.1151999999999997E-2</v>
       </c>
       <c r="L100">
-        <v>283.10000000000002</v>
+        <v>6.4619999999999997E-2</v>
       </c>
       <c r="M100">
-        <v>298.10000000000002</v>
+        <v>2.4793200000000001E-2</v>
       </c>
       <c r="N100">
-        <v>313.10000000000002</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D101" t="s">
-        <v>45</v>
-      </c>
+      <c r="C101" s="5"/>
       <c r="H101">
-        <v>230</v>
+        <v>0.30492000000000002</v>
       </c>
       <c r="I101">
-        <v>230</v>
+        <v>0.19889999999999999</v>
       </c>
       <c r="J101">
-        <v>230</v>
+        <v>0.12427199999999999</v>
       </c>
       <c r="K101">
-        <v>230</v>
+        <v>8.856E-2</v>
       </c>
       <c r="L101">
-        <v>230</v>
+        <v>6.4007999999999995E-2</v>
       </c>
       <c r="M101">
-        <v>230</v>
+        <v>2.7205199999999999E-2</v>
       </c>
       <c r="N101">
-        <v>230</v>
+        <v>5.5295999999999998E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="H102">
+        <v>0.37152000000000002</v>
+      </c>
+      <c r="I102">
+        <v>0.21754799999999999</v>
+      </c>
+      <c r="J102">
+        <v>0.138456</v>
+      </c>
+      <c r="K102">
+        <v>9.7776000000000002E-2</v>
+      </c>
+      <c r="L102">
+        <v>6.9264000000000006E-2</v>
+      </c>
+      <c r="M102">
+        <v>2.6478000000000002E-2</v>
+      </c>
+      <c r="N102">
+        <v>5.5655999999999997E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="H103">
+        <v>0.47304000000000002</v>
+      </c>
+      <c r="I103">
+        <v>0.28098000000000001</v>
+      </c>
+      <c r="J103">
+        <v>0.16261200000000001</v>
+      </c>
+      <c r="K103">
+        <v>0.109692</v>
+      </c>
+      <c r="L103">
+        <v>8.0423999999999995E-2</v>
+      </c>
+      <c r="M103">
+        <v>3.6504000000000002E-2</v>
+      </c>
+      <c r="N103">
+        <v>0.10040399999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104">
+        <v>243.1</v>
+      </c>
+      <c r="I104">
+        <v>253.1</v>
+      </c>
+      <c r="J104">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="K104">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="L104">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="M104">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="N104">
+        <v>313.10000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" t="s">
+        <v>44</v>
+      </c>
+      <c r="H105">
+        <v>230</v>
+      </c>
+      <c r="I105">
+        <v>230</v>
+      </c>
+      <c r="J105">
+        <v>230</v>
+      </c>
+      <c r="K105">
+        <v>230</v>
+      </c>
+      <c r="L105">
+        <v>230</v>
+      </c>
+      <c r="M105">
+        <v>230</v>
+      </c>
+      <c r="N105">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" t="s">
         <v>46</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" t="s">
-        <v>47</v>
-      </c>
-      <c r="H102">
+      <c r="H106">
         <v>0.8</v>
       </c>
     </row>
@@ -4015,7 +4063,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B47">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
